--- a/app/tables/refrigerators/forms/refrigerators_update/refrigerators_update.xlsx
+++ b/app/tables/refrigerators/forms/refrigerators_update/refrigerators_update.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22202"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="6360" yWindow="3540" windowWidth="25820" windowHeight="12400" activeTab="2"/>
+    <workbookView xWindow="6360" yWindow="3540" windowWidth="25820" windowHeight="12400"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -33,9 +33,6 @@
     <t>note</t>
   </si>
   <si>
-    <t>Refrigerator id: {{refrigerator_id}}</t>
-  </si>
-  <si>
     <t>refrigerator_condition</t>
   </si>
   <si>
@@ -136,6 +133,9 @@
   </si>
   <si>
     <t>hideInContents</t>
+  </si>
+  <si>
+    <t>Refrigerator id: {{data.refrigerator_id}}</t>
   </si>
 </sst>
 </file>
@@ -490,72 +490,72 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="2" width="27.1796875" customWidth="1"/>
-    <col min="3" max="3" width="24.81640625" customWidth="1"/>
-    <col min="4" max="4" width="41.81640625" customWidth="1"/>
-    <col min="5" max="5" width="32.81640625" customWidth="1"/>
-    <col min="6" max="6" width="13.36328125" customWidth="1"/>
+    <col min="1" max="2" width="27.1640625" customWidth="1"/>
+    <col min="3" max="3" width="24.83203125" customWidth="1"/>
+    <col min="4" max="4" width="41.83203125" customWidth="1"/>
+    <col min="5" max="5" width="32.83203125" customWidth="1"/>
+    <col min="6" max="6" width="13.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="12">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1" t="s">
         <v>30</v>
       </c>
-      <c r="E1" t="s">
-        <v>31</v>
-      </c>
       <c r="F1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="18" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="1"/>
       <c r="D2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="18" customHeight="1">
+      <c r="A3" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>4</v>
       </c>
-      <c r="D3" t="s">
+    </row>
+    <row r="4" spans="1:6" ht="18" customHeight="1">
+      <c r="A4" s="1" t="s">
         <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" t="s">
         <v>7</v>
-      </c>
-      <c r="D4" t="s">
-        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -576,72 +576,72 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="17.1796875" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="17.1640625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:3" ht="22.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="22.25" customHeight="1">
       <c r="A1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="22.25" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:3" ht="22.25" customHeight="1">
       <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
         <v>9</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="22.25" customHeight="1">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
         <v>10</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="22.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" t="s">
+    <row r="4" spans="1:3" ht="22.25" customHeight="1">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
         <v>11</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="22.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" t="s">
+    <row r="5" spans="1:3" ht="22.25" customHeight="1">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
         <v>12</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C5" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="22.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" t="s">
+    <row r="6" spans="1:3" ht="22.25" customHeight="1">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" t="s">
         <v>13</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C6" t="s">
         <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="22.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" t="s">
-        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -658,17 +658,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="21.453125" customWidth="1"/>
-    <col min="2" max="2" width="25.1796875" customWidth="1"/>
+    <col min="1" max="1" width="21.5" customWidth="1"/>
+    <col min="2" max="2" width="25.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="12.75" customHeight="1">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -676,44 +676,44 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" ht="12.75" customHeight="1">
       <c r="A2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" t="s">
         <v>15</v>
       </c>
-      <c r="B2" t="s">
+    </row>
+    <row r="3" spans="1:2" ht="12.75" customHeight="1">
+      <c r="A3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="B3" t="s">
         <v>17</v>
       </c>
-      <c r="B3" t="s">
+    </row>
+    <row r="4" spans="1:2" ht="12.75" customHeight="1">
+      <c r="A4" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="B4" t="s">
         <v>19</v>
       </c>
-      <c r="B4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:2" ht="12.75" customHeight="1">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="12.75" customHeight="1">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -734,54 +734,54 @@
       <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="14.6328125" customWidth="1"/>
-    <col min="2" max="2" width="19.1796875" customWidth="1"/>
+    <col min="1" max="1" width="14.6640625" customWidth="1"/>
+    <col min="2" max="2" width="19.1640625" customWidth="1"/>
     <col min="3" max="3" width="35" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="16.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="16.75" customHeight="1">
       <c r="A1" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:3" ht="16.75" customHeight="1">
+      <c r="A2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="16.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="B2" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="1" t="s">
+    </row>
+    <row r="3" spans="1:3" ht="16.75" customHeight="1">
+      <c r="A3" s="1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" ht="16.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="B3" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="1" t="s">
+    </row>
+    <row r="4" spans="1:3" ht="16.75" customHeight="1">
+      <c r="A4" s="1" t="s">
         <v>25</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="16.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>26</v>
       </c>
       <c r="B4" s="1">
         <v>20130408</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="16.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" ht="16.75" customHeight="1">
       <c r="A5" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
